--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1689776.643734662</v>
+        <v>1634824.754450567</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013174</v>
+        <v>408938.3872013175</v>
       </c>
     </row>
     <row r="8">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>221.7685724598865</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>7.111889598324742</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>103.1100538602882</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
         <v>266.7045835770116</v>
@@ -1517,7 +1517,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>141.7826677428562</v>
       </c>
     </row>
     <row r="13">
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>52.42857711587137</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>50.00010435294849</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>276.7331782137887</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>291.5590642877614</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1694,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>28.27640752887107</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>151.4136260742875</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.104422984974</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>80.39631948615283</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="17">
@@ -1849,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>417.3985592667085</v>
+        <v>396.0094758425356</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>134.7549293585489</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>115.1070645654642</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>28.92406040394317</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.916258666856805</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>73.3534034990646</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>343.7763409265759</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>245.5564611981208</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>146.8591893233499</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350707</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886886</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S21" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>32.6175960379276</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>80.39631948615268</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>123.1434003800099</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="23">
@@ -2326,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>417.3985592667085</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>50.48106005331753</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>122.3215916195975</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>120.5846781570249</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>109.7969997889527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>10.67880083738541</v>
       </c>
       <c r="C25" t="n">
-        <v>152.3549420496105</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2560,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>196.0769050817287</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.0353723969745</v>
@@ -2617,13 +2617,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>119.3021204319158</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,22 +2639,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>91.57642121287685</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,22 +2684,22 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>153.1172972319391</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>223.3842861340256</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>77.52012824943817</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.58429473553586</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>7.226885210985718</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>35.44148301624919</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
-        <v>9.976326999941998</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>21.28457206481518</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>62.32981706037864</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>152.3549420496103</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>75.61813689207855</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>357.2700220891891</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>190.8482626082557</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -3107,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9743432409925</v>
+        <v>90.22595344863024</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>221.8402941963075</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>152.3549420496105</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>123.14340038001</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3271,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
-        <v>134.6306251750102</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>230.2775846620036</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3353,19 +3353,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>137.7081775112594</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H36" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8662302997449</v>
+        <v>200.136215448509</v>
       </c>
       <c r="U36" t="n">
         <v>237.1773944157285</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>129.482578516696</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>75.6181368920785</v>
       </c>
     </row>
     <row r="38">
@@ -3505,16 +3505,16 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>145.0043431831591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>154.826255151659</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>382.2855674184499</v>
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3641,16 +3641,16 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>212.2584398702744</v>
       </c>
       <c r="Y39" t="n">
-        <v>139.3241889502359</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>158.6107100818744</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>80.39631948615289</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>107.2346496922143</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>210.5004136397879</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>52.29779982140575</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -3836,10 +3836,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>22.70042032133732</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>123.14340038001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>8.91625866685696</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>235.1707070210542</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>185.3540578110328</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>95.68190834795135</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>30.76479898799983</v>
       </c>
       <c r="T45" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>16.93456886964942</v>
+        <v>57.93711530128722</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1610.227176505315</v>
+        <v>1177.744500007125</v>
       </c>
       <c r="C11" t="n">
-        <v>1610.227176505315</v>
+        <v>824.0015733594698</v>
       </c>
       <c r="D11" t="n">
-        <v>1610.227176505315</v>
+        <v>824.0015733594698</v>
       </c>
       <c r="E11" t="n">
-        <v>1386.218517454924</v>
+        <v>448.7703490547868</v>
       </c>
       <c r="F11" t="n">
-        <v>978.9465481215775</v>
+        <v>41.49837972143985</v>
       </c>
       <c r="G11" t="n">
-        <v>557.3318417915689</v>
+        <v>41.49837972143985</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>41.49837972143985</v>
       </c>
       <c r="I11" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K11" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L11" t="n">
-        <v>525.5283691389718</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292778</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N11" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O11" t="n">
         <v>1460.632785841149</v>
@@ -5065,28 +5065,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R11" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S11" t="n">
-        <v>1610.227176505315</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T11" t="n">
-        <v>1610.227176505315</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U11" t="n">
-        <v>1610.227176505315</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="V11" t="n">
-        <v>1610.227176505315</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="W11" t="n">
-        <v>1610.227176505315</v>
+        <v>1177.744500007125</v>
       </c>
       <c r="X11" t="n">
-        <v>1610.227176505315</v>
+        <v>1177.744500007125</v>
       </c>
       <c r="Y11" t="n">
-        <v>1610.227176505315</v>
+        <v>1177.744500007125</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>822.6495330776379</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="C12" t="n">
-        <v>633.2372588106016</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="D12" t="n">
-        <v>472.4571425716333</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E12" t="n">
-        <v>298.8939386930477</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F12" t="n">
-        <v>138.4662224102918</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4662224102918</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H12" t="n">
         <v>34.31465285444516</v>
@@ -5120,25 +5120,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K12" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L12" t="n">
-        <v>498.4142537443595</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M12" t="n">
-        <v>679.5863020207054</v>
+        <v>770.1254798029026</v>
       </c>
       <c r="N12" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O12" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P12" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q12" t="n">
         <v>1715.732642722258</v>
@@ -5147,25 +5147,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S12" t="n">
-        <v>1715.732642722258</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T12" t="n">
-        <v>1715.732642722258</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U12" t="n">
-        <v>1715.732642722258</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V12" t="n">
-        <v>1715.732642722258</v>
+        <v>839.9992362879179</v>
       </c>
       <c r="W12" t="n">
-        <v>1446.334073452549</v>
+        <v>570.6006670182093</v>
       </c>
       <c r="X12" t="n">
-        <v>1226.826079069245</v>
+        <v>351.0926726349056</v>
       </c>
       <c r="Y12" t="n">
-        <v>1001.185386004573</v>
+        <v>207.8778567330307</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.31465285444516</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="C13" t="n">
-        <v>34.31465285444516</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="D13" t="n">
-        <v>34.31465285444516</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="E13" t="n">
-        <v>34.31465285444516</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="F13" t="n">
-        <v>34.31465285444516</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="G13" t="n">
         <v>34.31465285444516</v>
@@ -5202,49 +5202,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K13" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L13" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M13" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N13" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O13" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P13" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R13" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S13" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T13" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U13" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V13" t="n">
-        <v>34.31465285444516</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="W13" t="n">
-        <v>34.31465285444516</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="X13" t="n">
-        <v>34.31465285444516</v>
+        <v>87.27281155734553</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.31465285444516</v>
+        <v>87.27281155734553</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>328.8187581956183</v>
+        <v>922.8407131405512</v>
       </c>
       <c r="C14" t="n">
-        <v>328.8187581956183</v>
+        <v>922.8407131405512</v>
       </c>
       <c r="D14" t="n">
-        <v>328.8187581956183</v>
+        <v>643.3122502983404</v>
       </c>
       <c r="E14" t="n">
-        <v>328.8187581956183</v>
+        <v>643.3122502983404</v>
       </c>
       <c r="F14" t="n">
-        <v>328.8187581956183</v>
+        <v>643.3122502983404</v>
       </c>
       <c r="G14" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H14" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I14" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K14" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389718</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292778</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N14" t="n">
         <v>1186.279026157782</v>
@@ -5302,28 +5302,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R14" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S14" t="n">
-        <v>1610.227176505315</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T14" t="n">
-        <v>1610.227176505315</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="U14" t="n">
-        <v>1357.666194286149</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="V14" t="n">
-        <v>1033.545200741551</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="W14" t="n">
-        <v>692.2356413215841</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="X14" t="n">
-        <v>328.8187581956183</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="Y14" t="n">
-        <v>328.8187581956183</v>
+        <v>1300.7066125121</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>545.3627904664568</v>
+        <v>569.4569607682822</v>
       </c>
       <c r="C15" t="n">
-        <v>545.3627904664568</v>
+        <v>569.4569607682822</v>
       </c>
       <c r="D15" t="n">
-        <v>545.3627904664568</v>
+        <v>569.4569607682822</v>
       </c>
       <c r="E15" t="n">
-        <v>545.3627904664568</v>
+        <v>395.8937568896967</v>
       </c>
       <c r="F15" t="n">
-        <v>384.9350741837009</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="G15" t="n">
         <v>235.4660406069408</v>
@@ -5363,10 +5363,10 @@
         <v>195.4144734331679</v>
       </c>
       <c r="L15" t="n">
-        <v>478.319605488546</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M15" t="n">
-        <v>853.2112150416076</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N15" t="n">
         <v>1173.359244302914</v>
@@ -5381,28 +5381,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R15" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S15" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T15" t="n">
-        <v>1501.726349490192</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U15" t="n">
-        <v>1262.153223817739</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="V15" t="n">
-        <v>1019.073505721373</v>
+        <v>991.7985866786853</v>
       </c>
       <c r="W15" t="n">
-        <v>990.5114779144328</v>
+        <v>722.4000174089766</v>
       </c>
       <c r="X15" t="n">
-        <v>771.0034835311292</v>
+        <v>569.4569607682822</v>
       </c>
       <c r="Y15" t="n">
-        <v>545.3627904664568</v>
+        <v>569.4569607682822</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C16" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D16" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E16" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F16" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G16" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H16" t="n">
-        <v>181.2168440820685</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I16" t="n">
         <v>34.31465285444516</v>
@@ -5439,49 +5439,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K16" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L16" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M16" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N16" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P16" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q16" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R16" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S16" t="n">
-        <v>334.857675380022</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="T16" t="n">
-        <v>334.857675380022</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="U16" t="n">
-        <v>334.857675380022</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="V16" t="n">
-        <v>334.857675380022</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="W16" t="n">
-        <v>334.857675380022</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="X16" t="n">
-        <v>334.857675380022</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="Y16" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1579.616552461097</v>
+        <v>434.324224412562</v>
       </c>
       <c r="C17" t="n">
-        <v>1579.616552461097</v>
+        <v>434.324224412562</v>
       </c>
       <c r="D17" t="n">
-        <v>1238.432552822484</v>
+        <v>434.324224412562</v>
       </c>
       <c r="E17" t="n">
-        <v>863.2013285178008</v>
+        <v>434.324224412562</v>
       </c>
       <c r="F17" t="n">
-        <v>455.9293591844538</v>
+        <v>434.324224412562</v>
       </c>
       <c r="G17" t="n">
         <v>34.31465285444516</v>
@@ -5515,25 +5515,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602973</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K17" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L17" t="n">
-        <v>525.5283691389717</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292775</v>
+        <v>856.6460009292783</v>
       </c>
       <c r="N17" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O17" t="n">
-        <v>1460.632785841148</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P17" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q17" t="n">
         <v>1715.732642722258</v>
@@ -5548,19 +5548,19 @@
         <v>1715.732642722258</v>
       </c>
       <c r="U17" t="n">
-        <v>1579.616552461097</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V17" t="n">
-        <v>1579.616552461097</v>
+        <v>1139.050666958494</v>
       </c>
       <c r="W17" t="n">
-        <v>1579.616552461097</v>
+        <v>797.7411075385278</v>
       </c>
       <c r="X17" t="n">
-        <v>1579.616552461097</v>
+        <v>434.324224412562</v>
       </c>
       <c r="Y17" t="n">
-        <v>1579.616552461097</v>
+        <v>434.324224412562</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>339.996689308819</v>
+        <v>386.5631129400364</v>
       </c>
       <c r="C18" t="n">
-        <v>150.5844150417828</v>
+        <v>386.5631129400364</v>
       </c>
       <c r="D18" t="n">
-        <v>34.31465285444516</v>
+        <v>386.5631129400364</v>
       </c>
       <c r="E18" t="n">
-        <v>34.31465285444516</v>
+        <v>212.9999090614509</v>
       </c>
       <c r="F18" t="n">
-        <v>34.31465285444516</v>
+        <v>212.9999090614509</v>
       </c>
       <c r="G18" t="n">
-        <v>34.31465285444516</v>
+        <v>63.5308754846908</v>
       </c>
       <c r="H18" t="n">
-        <v>34.31465285444516</v>
+        <v>63.5308754846908</v>
       </c>
       <c r="I18" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J18" t="n">
-        <v>54.40930111025865</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K18" t="n">
-        <v>215.5091216889813</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L18" t="n">
-        <v>498.4142537443594</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M18" t="n">
-        <v>873.305863297421</v>
+        <v>679.5863020207055</v>
       </c>
       <c r="N18" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O18" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P18" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q18" t="n">
         <v>1715.732642722258</v>
@@ -5621,25 +5621,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S18" t="n">
-        <v>1715.732642722258</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T18" t="n">
-        <v>1715.732642722258</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="U18" t="n">
-        <v>1476.159517049805</v>
+        <v>1297.08524761635</v>
       </c>
       <c r="V18" t="n">
-        <v>1233.079798953439</v>
+        <v>1054.005529519984</v>
       </c>
       <c r="W18" t="n">
-        <v>963.6812296837301</v>
+        <v>784.6069602502752</v>
       </c>
       <c r="X18" t="n">
-        <v>744.1732353004264</v>
+        <v>565.0989658669715</v>
       </c>
       <c r="Y18" t="n">
-        <v>518.5325422357541</v>
+        <v>565.0989658669715</v>
       </c>
     </row>
     <row r="19">
@@ -5676,49 +5676,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K19" t="n">
-        <v>42.23041924514568</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L19" t="n">
-        <v>105.4471208306431</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M19" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N19" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O19" t="n">
-        <v>315.4306320098954</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P19" t="n">
-        <v>334.8576753800219</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q19" t="n">
-        <v>334.8576753800219</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R19" t="n">
-        <v>334.8576753800219</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S19" t="n">
-        <v>334.8576753800219</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="T19" t="n">
-        <v>334.8576753800219</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="U19" t="n">
-        <v>43.3209747401591</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="V19" t="n">
-        <v>43.3209747401591</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="W19" t="n">
-        <v>43.3209747401591</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="X19" t="n">
-        <v>43.3209747401591</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.3209747401591</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>575.4404706159871</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="C20" t="n">
-        <v>221.6975439683318</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D20" t="n">
-        <v>221.6975439683318</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E20" t="n">
-        <v>221.6975439683318</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F20" t="n">
-        <v>221.6975439683318</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G20" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H20" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I20" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M20" t="n">
         <v>856.6460009292778</v>
       </c>
       <c r="N20" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O20" t="n">
         <v>1460.632785841149</v>
@@ -5776,28 +5776,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R20" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S20" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T20" t="n">
-        <v>1610.227176505315</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="U20" t="n">
-        <v>1610.227176505315</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="V20" t="n">
-        <v>1286.106182960717</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="W20" t="n">
-        <v>1286.106182960717</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="X20" t="n">
-        <v>922.6892998347507</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="Y20" t="n">
-        <v>922.6892998347507</v>
+        <v>863.2013285178008</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>719.2783943012547</v>
+        <v>533.6236769809974</v>
       </c>
       <c r="C21" t="n">
-        <v>719.2783943012547</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="D21" t="n">
-        <v>558.4982780622864</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="E21" t="n">
-        <v>384.9350741837009</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="F21" t="n">
-        <v>384.9350741837009</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G21" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I21" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J21" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K21" t="n">
-        <v>195.4144734331678</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L21" t="n">
-        <v>478.319605488546</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M21" t="n">
-        <v>853.2112150416074</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N21" t="n">
         <v>1082.820066520716</v>
@@ -5858,25 +5858,25 @@
         <v>1627.958867440572</v>
       </c>
       <c r="S21" t="n">
-        <v>1448.884598007116</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T21" t="n">
-        <v>1234.878304775051</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U21" t="n">
-        <v>995.305179102598</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="V21" t="n">
-        <v>752.2254610062321</v>
+        <v>1170.872856112141</v>
       </c>
       <c r="W21" t="n">
-        <v>719.2783943012547</v>
+        <v>901.4742868424322</v>
       </c>
       <c r="X21" t="n">
-        <v>719.2783943012547</v>
+        <v>681.9662924591286</v>
       </c>
       <c r="Y21" t="n">
-        <v>719.2783943012547</v>
+        <v>681.9662924591286</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.31465285444516</v>
+        <v>115.5230563758115</v>
       </c>
       <c r="C22" t="n">
-        <v>34.31465285444516</v>
+        <v>115.5230563758115</v>
       </c>
       <c r="D22" t="n">
-        <v>34.31465285444516</v>
+        <v>115.5230563758115</v>
       </c>
       <c r="E22" t="n">
-        <v>34.31465285444516</v>
+        <v>115.5230563758115</v>
       </c>
       <c r="F22" t="n">
-        <v>34.31465285444516</v>
+        <v>115.5230563758115</v>
       </c>
       <c r="G22" t="n">
-        <v>34.31465285444516</v>
+        <v>115.5230563758115</v>
       </c>
       <c r="H22" t="n">
         <v>34.31465285444516</v>
@@ -5913,49 +5913,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K22" t="n">
-        <v>42.23041924514568</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L22" t="n">
-        <v>105.4471208306431</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M22" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N22" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O22" t="n">
-        <v>315.4306320098954</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P22" t="n">
-        <v>334.8576753800219</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q22" t="n">
-        <v>334.8576753800219</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R22" t="n">
-        <v>158.7019259655662</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S22" t="n">
-        <v>158.7019259655662</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T22" t="n">
-        <v>158.7019259655662</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U22" t="n">
-        <v>158.7019259655662</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V22" t="n">
-        <v>158.7019259655662</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W22" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X22" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.31465285444516</v>
+        <v>115.5230563758115</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1592.175479470139</v>
+        <v>809.6722858321092</v>
       </c>
       <c r="C23" t="n">
-        <v>1238.432552822484</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="D23" t="n">
-        <v>1238.432552822484</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E23" t="n">
-        <v>863.2013285178008</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F23" t="n">
         <v>455.9293591844538</v>
@@ -5989,13 +5989,13 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602962</v>
       </c>
       <c r="K23" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193748</v>
       </c>
       <c r="L23" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389717</v>
       </c>
       <c r="M23" t="n">
         <v>856.6460009292779</v>
@@ -6013,28 +6013,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R23" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S23" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T23" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U23" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V23" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W23" t="n">
-        <v>1715.732642722258</v>
+        <v>1559.236206754489</v>
       </c>
       <c r="X23" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.819323628523</v>
       </c>
       <c r="Y23" t="n">
-        <v>1592.175479470139</v>
+        <v>809.6722858321092</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1069.118384851047</v>
+        <v>355.5224853761694</v>
       </c>
       <c r="C24" t="n">
-        <v>879.7061105840106</v>
+        <v>355.5224853761694</v>
       </c>
       <c r="D24" t="n">
-        <v>718.9259943450423</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="E24" t="n">
-        <v>545.3627904664568</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F24" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G24" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I24" t="n">
         <v>34.31465285444516</v>
@@ -6071,13 +6071,13 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K24" t="n">
-        <v>195.4144734331679</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L24" t="n">
-        <v>478.319605488546</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M24" t="n">
-        <v>853.2112150416076</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N24" t="n">
         <v>1173.359244302914</v>
@@ -6095,25 +6095,25 @@
         <v>1627.958867440572</v>
       </c>
       <c r="S24" t="n">
-        <v>1627.958867440572</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T24" t="n">
-        <v>1627.958867440572</v>
+        <v>1327.081892798001</v>
       </c>
       <c r="U24" t="n">
-        <v>1627.958867440572</v>
+        <v>1087.508767125548</v>
       </c>
       <c r="V24" t="n">
-        <v>1627.958867440572</v>
+        <v>844.4290490291817</v>
       </c>
       <c r="W24" t="n">
-        <v>1358.560298170863</v>
+        <v>575.030479759473</v>
       </c>
       <c r="X24" t="n">
-        <v>1358.560298170863</v>
+        <v>355.5224853761694</v>
       </c>
       <c r="Y24" t="n">
-        <v>1247.654237777982</v>
+        <v>355.5224853761694</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1715.732642722258</v>
+        <v>324.0710078675115</v>
       </c>
       <c r="C25" t="n">
-        <v>1561.838761864065</v>
+        <v>324.0710078675115</v>
       </c>
       <c r="D25" t="n">
-        <v>1415.189620196681</v>
+        <v>177.421866200127</v>
       </c>
       <c r="E25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>1423.105386587381</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L25" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M25" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N25" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O25" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>232.3721327349792</v>
+        <v>1018.543474603023</v>
       </c>
       <c r="C26" t="n">
-        <v>232.3721327349792</v>
+        <v>1018.543474603023</v>
       </c>
       <c r="D26" t="n">
-        <v>34.31465285444516</v>
+        <v>1018.543474603023</v>
       </c>
       <c r="E26" t="n">
-        <v>34.31465285444516</v>
+        <v>643.3122502983404</v>
       </c>
       <c r="F26" t="n">
-        <v>34.31465285444516</v>
+        <v>643.3122502983404</v>
       </c>
       <c r="G26" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H26" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I26" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602939</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K26" t="n">
-        <v>253.8975067193745</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L26" t="n">
-        <v>525.5283691389716</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M26" t="n">
-        <v>856.6460009292774</v>
+        <v>856.6460009292776</v>
       </c>
       <c r="N26" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O26" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P26" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q26" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R26" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S26" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T26" t="n">
-        <v>1195.201146295158</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U26" t="n">
-        <v>942.6401640759913</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V26" t="n">
-        <v>618.5191705313932</v>
+        <v>1139.050666958494</v>
       </c>
       <c r="W26" t="n">
-        <v>618.5191705313932</v>
+        <v>1018.543474603023</v>
       </c>
       <c r="X26" t="n">
-        <v>618.5191705313932</v>
+        <v>1018.543474603023</v>
       </c>
       <c r="Y26" t="n">
-        <v>232.3721327349792</v>
+        <v>1018.543474603023</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1069.118384851047</v>
+        <v>316.2283626900439</v>
       </c>
       <c r="C27" t="n">
-        <v>879.7061105840106</v>
+        <v>126.8160884230076</v>
       </c>
       <c r="D27" t="n">
-        <v>718.9259943450423</v>
+        <v>126.8160884230076</v>
       </c>
       <c r="E27" t="n">
-        <v>545.3627904664568</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F27" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G27" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I27" t="n">
         <v>34.31465285444516</v>
@@ -6308,49 +6308,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K27" t="n">
-        <v>34.31465285444516</v>
+        <v>112.3287381944634</v>
       </c>
       <c r="L27" t="n">
-        <v>317.2197849098233</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M27" t="n">
-        <v>692.1113944628848</v>
+        <v>770.125479802903</v>
       </c>
       <c r="N27" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O27" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P27" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q27" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R27" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S27" t="n">
-        <v>1627.958867440573</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T27" t="n">
-        <v>1627.958867440573</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U27" t="n">
-        <v>1627.958867440573</v>
+        <v>1209.311472334664</v>
       </c>
       <c r="V27" t="n">
-        <v>1627.958867440573</v>
+        <v>1209.311472334664</v>
       </c>
       <c r="W27" t="n">
-        <v>1627.958867440573</v>
+        <v>939.912903064955</v>
       </c>
       <c r="X27" t="n">
-        <v>1473.294930842654</v>
+        <v>720.4049086816514</v>
       </c>
       <c r="Y27" t="n">
-        <v>1247.654237777982</v>
+        <v>494.764215616979</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C28" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D28" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E28" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F28" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G28" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H28" t="n">
-        <v>256.5545155321047</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I28" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J28" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="K28" t="n">
-        <v>42.23041924514571</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L28" t="n">
         <v>105.4471208306432</v>
       </c>
       <c r="M28" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N28" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O28" t="n">
         <v>315.4306320098955</v>
@@ -6417,19 +6417,19 @@
         <v>334.857675380022</v>
       </c>
       <c r="U28" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V28" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W28" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X28" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y28" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>932.5630660962519</v>
+        <v>70.11413064863626</v>
       </c>
       <c r="C29" t="n">
-        <v>932.5630660962519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D29" t="n">
-        <v>932.5630660962519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E29" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F29" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G29" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H29" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I29" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.26440887602939</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K29" t="n">
-        <v>253.8975067193746</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L29" t="n">
-        <v>525.5283691389715</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292773</v>
+        <v>856.6460009292776</v>
       </c>
       <c r="N29" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O29" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P29" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q29" t="n">
         <v>1715.732642722258</v>
@@ -6493,22 +6493,22 @@
         <v>1413.548593210149</v>
       </c>
       <c r="T29" t="n">
-        <v>1195.201146295158</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U29" t="n">
-        <v>942.6401640759913</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="V29" t="n">
-        <v>932.5630660962519</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="W29" t="n">
-        <v>932.5630660962519</v>
+        <v>819.6780515710161</v>
       </c>
       <c r="X29" t="n">
-        <v>932.5630660962519</v>
+        <v>456.2611684450503</v>
       </c>
       <c r="Y29" t="n">
-        <v>932.5630660962519</v>
+        <v>70.11413064863626</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>558.0702472390352</v>
       </c>
       <c r="C30" t="n">
-        <v>368.657972971999</v>
+        <v>368.6579729719989</v>
       </c>
       <c r="D30" t="n">
         <v>207.8778567330307</v>
@@ -6545,46 +6545,46 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K30" t="n">
-        <v>195.4144734331679</v>
+        <v>195.4144734331678</v>
       </c>
       <c r="L30" t="n">
         <v>478.319605488546</v>
       </c>
       <c r="M30" t="n">
-        <v>853.2112150416076</v>
+        <v>679.5863020207056</v>
       </c>
       <c r="N30" t="n">
-        <v>1256.444979541619</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O30" t="n">
         <v>1395.953100567611</v>
       </c>
       <c r="P30" t="n">
-        <v>1625.193464940061</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q30" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
-        <v>1694.233074980021</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S30" t="n">
-        <v>1694.233074980021</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T30" t="n">
-        <v>1694.233074980021</v>
+        <v>1501.726349490192</v>
       </c>
       <c r="U30" t="n">
-        <v>1694.233074980021</v>
+        <v>1262.153223817739</v>
       </c>
       <c r="V30" t="n">
-        <v>1451.153356883655</v>
+        <v>1019.073505721374</v>
       </c>
       <c r="W30" t="n">
-        <v>1181.754787613946</v>
+        <v>956.1140945492739</v>
       </c>
       <c r="X30" t="n">
-        <v>962.2467932306427</v>
+        <v>736.6061001659702</v>
       </c>
       <c r="Y30" t="n">
         <v>736.6061001659702</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="C31" t="n">
-        <v>34.31465285444516</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="D31" t="n">
         <v>34.31465285444516</v>
@@ -6624,16 +6624,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K31" t="n">
-        <v>42.23041924514571</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L31" t="n">
         <v>105.4471208306432</v>
       </c>
       <c r="M31" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N31" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O31" t="n">
         <v>315.4306320098955</v>
@@ -6660,13 +6660,13 @@
         <v>334.857675380022</v>
       </c>
       <c r="W31" t="n">
-        <v>258.475718923377</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X31" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1391.61164917766</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="C32" t="n">
-        <v>1391.61164917766</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D32" t="n">
-        <v>1198.835626341038</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E32" t="n">
-        <v>1198.835626341038</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F32" t="n">
-        <v>791.5636570076908</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G32" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H32" t="n">
         <v>34.31465285444516</v>
@@ -6700,19 +6700,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K32" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L32" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M32" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N32" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O32" t="n">
         <v>1460.632785841149</v>
@@ -6724,28 +6724,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R32" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S32" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T32" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U32" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V32" t="n">
-        <v>1391.61164917766</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W32" t="n">
-        <v>1391.61164917766</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="X32" t="n">
-        <v>1391.61164917766</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="Y32" t="n">
-        <v>1391.61164917766</v>
+        <v>1224.080138708901</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9669970985512</v>
+        <v>125.4519795702333</v>
       </c>
       <c r="C33" t="n">
-        <v>678.5547228315149</v>
+        <v>125.4519795702333</v>
       </c>
       <c r="D33" t="n">
-        <v>517.7746065925467</v>
+        <v>125.4519795702333</v>
       </c>
       <c r="E33" t="n">
-        <v>344.2114027139611</v>
+        <v>125.4519795702333</v>
       </c>
       <c r="F33" t="n">
-        <v>183.7836864312052</v>
+        <v>125.4519795702333</v>
       </c>
       <c r="G33" t="n">
         <v>34.31465285444516</v>
@@ -6779,25 +6779,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K33" t="n">
-        <v>215.5091216889814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L33" t="n">
-        <v>304.6946924676438</v>
+        <v>317.2197849098233</v>
       </c>
       <c r="M33" t="n">
-        <v>679.5863020207054</v>
+        <v>692.1113944628848</v>
       </c>
       <c r="N33" t="n">
-        <v>1082.820066520716</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O33" t="n">
-        <v>1395.95310056761</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P33" t="n">
-        <v>1625.19346494006</v>
+        <v>1637.71855738224</v>
       </c>
       <c r="Q33" t="n">
         <v>1715.732642722258</v>
@@ -6806,25 +6806,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S33" t="n">
-        <v>1715.732642722258</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T33" t="n">
-        <v>1715.732642722258</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U33" t="n">
-        <v>1715.732642722258</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V33" t="n">
-        <v>1715.732642722258</v>
+        <v>839.9992362879179</v>
       </c>
       <c r="W33" t="n">
-        <v>1491.651537473462</v>
+        <v>570.6006670182093</v>
       </c>
       <c r="X33" t="n">
-        <v>1272.143543090159</v>
+        <v>351.0926726349056</v>
       </c>
       <c r="Y33" t="n">
-        <v>1046.502850025486</v>
+        <v>125.4519795702333</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C34" t="n">
-        <v>1561.838761864065</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K34" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L34" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M34" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N34" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O34" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R34" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="S34" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="T34" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="U34" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V34" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W34" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X34" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y34" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1238.432552822484</v>
+        <v>375.4986524930586</v>
       </c>
       <c r="C35" t="n">
-        <v>1238.432552822484</v>
+        <v>375.4986524930586</v>
       </c>
       <c r="D35" t="n">
-        <v>1238.432552822484</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E35" t="n">
-        <v>863.2013285178008</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F35" t="n">
-        <v>455.9293591844538</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G35" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H35" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I35" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.2644088760303</v>
+        <v>79.26440887603053</v>
       </c>
       <c r="K35" t="n">
-        <v>253.8975067193753</v>
+        <v>253.8975067193758</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5283691389724</v>
+        <v>525.5283691389727</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292782</v>
+        <v>856.6460009292787</v>
       </c>
       <c r="N35" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P35" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q35" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R35" t="n">
-        <v>1715.732642722259</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S35" t="n">
-        <v>1715.732642722259</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T35" t="n">
-        <v>1715.732642722259</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U35" t="n">
-        <v>1715.732642722259</v>
+        <v>1357.666194286149</v>
       </c>
       <c r="V35" t="n">
-        <v>1579.74211224245</v>
+        <v>1357.666194286149</v>
       </c>
       <c r="W35" t="n">
-        <v>1238.432552822484</v>
+        <v>1125.062573415438</v>
       </c>
       <c r="X35" t="n">
-        <v>1238.432552822484</v>
+        <v>761.6456902894727</v>
       </c>
       <c r="Y35" t="n">
-        <v>1238.432552822484</v>
+        <v>375.4986524930586</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>524.0342433869932</v>
+        <v>357.3468903097908</v>
       </c>
       <c r="C36" t="n">
-        <v>524.0342433869932</v>
+        <v>357.3468903097908</v>
       </c>
       <c r="D36" t="n">
-        <v>524.0342433869932</v>
+        <v>357.3468903097908</v>
       </c>
       <c r="E36" t="n">
-        <v>524.0342433869932</v>
+        <v>183.7836864312053</v>
       </c>
       <c r="F36" t="n">
-        <v>384.9350741837009</v>
+        <v>183.7836864312053</v>
       </c>
       <c r="G36" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I36" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J36" t="n">
-        <v>54.40930111025868</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K36" t="n">
-        <v>54.40930111025868</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L36" t="n">
-        <v>337.3144331656368</v>
+        <v>317.2197849098233</v>
       </c>
       <c r="M36" t="n">
-        <v>712.2060427186984</v>
+        <v>692.1113944628848</v>
       </c>
       <c r="N36" t="n">
-        <v>1115.43980721871</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O36" t="n">
-        <v>1428.572841265604</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P36" t="n">
         <v>1625.193464940061</v>
       </c>
       <c r="Q36" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S36" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T36" t="n">
-        <v>1501.726349490193</v>
+        <v>1513.574849339926</v>
       </c>
       <c r="U36" t="n">
-        <v>1262.15322381774</v>
+        <v>1274.001723667473</v>
       </c>
       <c r="V36" t="n">
-        <v>1019.073505721374</v>
+        <v>1030.922005571107</v>
       </c>
       <c r="W36" t="n">
-        <v>749.6749364516655</v>
+        <v>761.5234363013983</v>
       </c>
       <c r="X36" t="n">
-        <v>749.6749364516655</v>
+        <v>761.5234363013983</v>
       </c>
       <c r="Y36" t="n">
-        <v>524.0342433869932</v>
+        <v>535.8827432367259</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1715.732642722259</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C37" t="n">
-        <v>1715.732642722259</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D37" t="n">
-        <v>1715.732642722259</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E37" t="n">
-        <v>1715.732642722259</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F37" t="n">
-        <v>1584.942159372061</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G37" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H37" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I37" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587382</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X37" t="n">
-        <v>1715.732642722259</v>
+        <v>110.6966093110901</v>
       </c>
       <c r="Y37" t="n">
-        <v>1715.732642722259</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>795.3295488354476</v>
+        <v>180.7836863727877</v>
       </c>
       <c r="C38" t="n">
-        <v>441.5866221877922</v>
+        <v>180.7836863727877</v>
       </c>
       <c r="D38" t="n">
-        <v>441.5866221877922</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E38" t="n">
-        <v>441.5866221877922</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F38" t="n">
         <v>34.31465285444516</v>
@@ -7174,16 +7174,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N38" t="n">
         <v>1186.279026157783</v>
@@ -7192,34 +7192,34 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P38" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q38" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V38" t="n">
-        <v>1715.732642722258</v>
+        <v>1286.106182960717</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.732642722258</v>
+        <v>944.7966235407505</v>
       </c>
       <c r="X38" t="n">
-        <v>1559.34248600341</v>
+        <v>944.7966235407505</v>
       </c>
       <c r="Y38" t="n">
-        <v>1173.195448206996</v>
+        <v>558.6495857443365</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1069.118384851047</v>
+        <v>344.5638026701735</v>
       </c>
       <c r="C39" t="n">
-        <v>879.7061105840106</v>
+        <v>344.5638026701735</v>
       </c>
       <c r="D39" t="n">
-        <v>718.9259943450423</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="E39" t="n">
-        <v>545.3627904664568</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="F39" t="n">
-        <v>384.9350741837009</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G39" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I39" t="n">
         <v>34.31465285444516</v>
@@ -7256,49 +7256,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K39" t="n">
-        <v>195.4144734331679</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L39" t="n">
-        <v>478.319605488546</v>
+        <v>317.2197849098233</v>
       </c>
       <c r="M39" t="n">
-        <v>853.2112150416076</v>
+        <v>692.1113944628848</v>
       </c>
       <c r="N39" t="n">
-        <v>1256.444979541619</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O39" t="n">
-        <v>1569.578013588512</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P39" t="n">
-        <v>1715.732642722258</v>
+        <v>1637.71855738224</v>
       </c>
       <c r="Q39" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S39" t="n">
-        <v>1627.958867440572</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T39" t="n">
-        <v>1627.958867440572</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="U39" t="n">
-        <v>1388.385741768119</v>
+        <v>1297.085247616349</v>
       </c>
       <c r="V39" t="n">
-        <v>1388.385741768119</v>
+        <v>1054.005529519983</v>
       </c>
       <c r="W39" t="n">
-        <v>1388.385741768119</v>
+        <v>784.6069602502745</v>
       </c>
       <c r="X39" t="n">
-        <v>1388.385741768119</v>
+        <v>570.2044957348458</v>
       </c>
       <c r="Y39" t="n">
-        <v>1247.654237777982</v>
+        <v>344.5638026701735</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="C40" t="n">
-        <v>1415.189620196681</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="D40" t="n">
-        <v>1415.189620196681</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="E40" t="n">
-        <v>1415.189620196681</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587381</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X40" t="n">
-        <v>1634.524239200891</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y40" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>221.6975439683318</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="C41" t="n">
-        <v>221.6975439683318</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D41" t="n">
-        <v>221.6975439683318</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E41" t="n">
-        <v>221.6975439683318</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F41" t="n">
-        <v>221.6975439683318</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G41" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H41" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I41" t="n">
         <v>34.31465285444516</v>
@@ -7429,34 +7429,34 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P41" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q41" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S41" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T41" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U41" t="n">
-        <v>1463.171660503092</v>
+        <v>1357.666194286149</v>
       </c>
       <c r="V41" t="n">
-        <v>1139.050666958494</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="W41" t="n">
-        <v>797.7411075385278</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="X41" t="n">
-        <v>434.324224412562</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="Y41" t="n">
-        <v>221.6975439683318</v>
+        <v>863.2013285178008</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1069.118384851047</v>
+        <v>570.600667018209</v>
       </c>
       <c r="C42" t="n">
-        <v>879.7061105840106</v>
+        <v>517.7746065925467</v>
       </c>
       <c r="D42" t="n">
-        <v>718.9259943450423</v>
+        <v>517.7746065925467</v>
       </c>
       <c r="E42" t="n">
-        <v>545.3627904664568</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="F42" t="n">
-        <v>384.9350741837009</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G42" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I42" t="n">
         <v>34.31465285444516</v>
@@ -7493,22 +7493,22 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K42" t="n">
-        <v>112.3287381944635</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L42" t="n">
-        <v>395.2338702498417</v>
+        <v>317.2197849098233</v>
       </c>
       <c r="M42" t="n">
-        <v>770.1254798029032</v>
+        <v>692.1113944628848</v>
       </c>
       <c r="N42" t="n">
-        <v>1173.359244302914</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O42" t="n">
-        <v>1486.492278349808</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P42" t="n">
-        <v>1715.732642722258</v>
+        <v>1637.71855738224</v>
       </c>
       <c r="Q42" t="n">
         <v>1715.732642722258</v>
@@ -7517,25 +7517,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S42" t="n">
-        <v>1715.732642722258</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T42" t="n">
-        <v>1715.732642722258</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U42" t="n">
-        <v>1715.732642722258</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V42" t="n">
-        <v>1715.732642722258</v>
+        <v>839.9992362879177</v>
       </c>
       <c r="W42" t="n">
-        <v>1692.802925225958</v>
+        <v>570.600667018209</v>
       </c>
       <c r="X42" t="n">
-        <v>1473.294930842654</v>
+        <v>570.600667018209</v>
       </c>
       <c r="Y42" t="n">
-        <v>1247.654237777982</v>
+        <v>570.600667018209</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="C43" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="D43" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="E43" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="F43" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="G43" t="n">
         <v>34.31465285444516</v>
@@ -7572,7 +7572,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>42.23041924514571</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L43" t="n">
         <v>105.4471208306432</v>
@@ -7593,28 +7593,28 @@
         <v>334.857675380022</v>
       </c>
       <c r="R43" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="S43" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="T43" t="n">
-        <v>325.8513534943079</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="U43" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="V43" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="W43" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="X43" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655664</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>750.7298767977416</v>
+        <v>1204.385328156414</v>
       </c>
       <c r="C44" t="n">
-        <v>750.7298767977416</v>
+        <v>1204.385328156414</v>
       </c>
       <c r="D44" t="n">
-        <v>409.5458771591282</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E44" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F44" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G44" t="n">
         <v>34.31465285444516</v>
@@ -7648,19 +7648,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K44" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292775</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N44" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O44" t="n">
         <v>1460.632785841149</v>
@@ -7681,19 +7681,19 @@
         <v>1715.732642722258</v>
       </c>
       <c r="U44" t="n">
-        <v>1715.732642722258</v>
+        <v>1528.506321701012</v>
       </c>
       <c r="V44" t="n">
-        <v>1715.732642722258</v>
+        <v>1204.385328156414</v>
       </c>
       <c r="W44" t="n">
-        <v>1374.423083302291</v>
+        <v>1204.385328156414</v>
       </c>
       <c r="X44" t="n">
-        <v>1374.423083302291</v>
+        <v>1204.385328156414</v>
       </c>
       <c r="Y44" t="n">
-        <v>988.2760455058772</v>
+        <v>1204.385328156414</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>304.5262490036886</v>
+        <v>949.6270488192655</v>
       </c>
       <c r="C45" t="n">
-        <v>304.5262490036886</v>
+        <v>760.2147745522292</v>
       </c>
       <c r="D45" t="n">
-        <v>304.5262490036886</v>
+        <v>599.4346583132609</v>
       </c>
       <c r="E45" t="n">
-        <v>130.9630451251031</v>
+        <v>425.8714544346753</v>
       </c>
       <c r="F45" t="n">
-        <v>130.9630451251031</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G45" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H45" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I45" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J45" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K45" t="n">
-        <v>215.5091216889814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L45" t="n">
-        <v>498.4142537443595</v>
+        <v>317.2197849098233</v>
       </c>
       <c r="M45" t="n">
-        <v>873.305863297421</v>
+        <v>692.1113944628848</v>
       </c>
       <c r="N45" t="n">
-        <v>1276.539627797432</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O45" t="n">
-        <v>1395.95310056761</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P45" t="n">
-        <v>1625.19346494006</v>
+        <v>1637.71855738224</v>
       </c>
       <c r="Q45" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S45" t="n">
-        <v>1715.732642722258</v>
+        <v>1596.883312907239</v>
       </c>
       <c r="T45" t="n">
-        <v>1501.726349490192</v>
+        <v>1596.883312907239</v>
       </c>
       <c r="U45" t="n">
-        <v>1262.153223817739</v>
+        <v>1596.883312907239</v>
       </c>
       <c r="V45" t="n">
-        <v>1019.073505721373</v>
+        <v>1353.803594810873</v>
       </c>
       <c r="W45" t="n">
-        <v>749.6749364516646</v>
+        <v>1353.803594810873</v>
       </c>
       <c r="X45" t="n">
-        <v>530.166942068361</v>
+        <v>1353.803594810873</v>
       </c>
       <c r="Y45" t="n">
-        <v>304.5262490036886</v>
+        <v>1128.162901746201</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>334.857675380022</v>
+        <v>260.97555818097</v>
       </c>
       <c r="C46" t="n">
-        <v>334.857675380022</v>
+        <v>92.83699154261407</v>
       </c>
       <c r="D46" t="n">
-        <v>317.752050259164</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E46" t="n">
-        <v>174.6448369134822</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F46" t="n">
         <v>34.31465285444516</v>
@@ -7827,31 +7827,31 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q46" t="n">
-        <v>334.857675380022</v>
+        <v>260.97555818097</v>
       </c>
       <c r="R46" t="n">
-        <v>334.857675380022</v>
+        <v>260.97555818097</v>
       </c>
       <c r="S46" t="n">
-        <v>334.857675380022</v>
+        <v>260.97555818097</v>
       </c>
       <c r="T46" t="n">
-        <v>334.857675380022</v>
+        <v>260.97555818097</v>
       </c>
       <c r="U46" t="n">
-        <v>334.857675380022</v>
+        <v>260.97555818097</v>
       </c>
       <c r="V46" t="n">
-        <v>334.857675380022</v>
+        <v>260.97555818097</v>
       </c>
       <c r="W46" t="n">
-        <v>334.857675380022</v>
+        <v>260.97555818097</v>
       </c>
       <c r="X46" t="n">
-        <v>334.857675380022</v>
+        <v>260.97555818097</v>
       </c>
       <c r="Y46" t="n">
-        <v>334.857675380022</v>
+        <v>260.97555818097</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K12" t="n">
         <v>171.373473584151</v>
@@ -8777,7 +8777,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>106.100556788065</v>
+        <v>217.8518962203989</v>
       </c>
       <c r="N12" t="n">
         <v>310.6138585746227</v>
@@ -8789,7 +8789,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9005,7 +9005,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>61.4093663997632</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K15" t="n">
         <v>171.373473584151</v>
@@ -9017,7 +9017,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>226.6888734850218</v>
+        <v>226.6888734850216</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9026,7 +9026,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.67636752131757</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9242,7 +9242,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K18" t="n">
         <v>171.373473584151</v>
@@ -9251,10 +9251,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>301.77688131</v>
+        <v>126.3981812888867</v>
       </c>
       <c r="N18" t="n">
-        <v>206.3912489842003</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9263,7 +9263,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.6763675213176</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9479,7 +9479,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>61.40936639976321</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
         <v>171.373473584151</v>
@@ -9491,7 +9491,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>135.2351585535096</v>
+        <v>114.9375340526877</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9719,7 +9719,7 @@
         <v>61.4093663997632</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9728,7 +9728,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>226.6888734850218</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -9953,10 +9953,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>61.4093663997632</v>
+        <v>61.40936639976321</v>
       </c>
       <c r="K27" t="n">
-        <v>8.64638209049167</v>
+        <v>87.4484884945505</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9965,7 +9965,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>297.9622500471691</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
         <v>255.2227828913207</v>
@@ -9974,7 +9974,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131759</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10190,7 +10190,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>61.4093663997632</v>
+        <v>61.40936639976321</v>
       </c>
       <c r="K30" t="n">
         <v>171.373473584151</v>
@@ -10199,13 +10199,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M30" t="n">
-        <v>301.77688131</v>
+        <v>126.398181288887</v>
       </c>
       <c r="N30" t="n">
         <v>310.6138585746227</v>
       </c>
       <c r="O30" t="n">
-        <v>79.84408287020796</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
         <v>206.3638740786793</v>
@@ -10427,13 +10427,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976321</v>
       </c>
       <c r="K33" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491699</v>
       </c>
       <c r="L33" t="n">
-        <v>44.62821923470651</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
         <v>301.77688131</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>123.4784739253764</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10664,10 +10664,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976321</v>
       </c>
       <c r="K36" t="n">
-        <v>8.64638209049167</v>
+        <v>8.646382090491699</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10682,7 +10682,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P36" t="n">
-        <v>173.414641050404</v>
+        <v>193.712265551226</v>
       </c>
       <c r="Q36" t="n">
         <v>136.1300824528302</v>
@@ -10904,7 +10904,7 @@
         <v>61.4093663997632</v>
       </c>
       <c r="K39" t="n">
-        <v>171.373473584151</v>
+        <v>8.64638209049167</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -10919,10 +10919,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P39" t="n">
-        <v>122.4388889890787</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.67636752131757</v>
+        <v>123.478473925376</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11141,7 +11141,7 @@
         <v>61.4093663997632</v>
       </c>
       <c r="K42" t="n">
-        <v>87.44848849455065</v>
+        <v>8.64638209049167</v>
       </c>
       <c r="L42" t="n">
         <v>240.3045437566416</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.67636752131757</v>
+        <v>123.478473925376</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11317,7 +11317,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.5801139476182</v>
+        <v>137.5801139476181</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11375,10 +11375,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K45" t="n">
-        <v>171.373473584151</v>
+        <v>8.64638209049167</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
@@ -11390,13 +11390,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O45" t="n">
-        <v>59.54645836938548</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P45" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>123.478473925376</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23260,25 +23260,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C11" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>149.7103396017497</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>178.397172604423</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.1639724458418</v>
@@ -23320,7 +23320,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>359.7827142947061</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
-        <v>15.1863688111754</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S12" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>81.60161839116944</v>
       </c>
     </row>
     <row r="13">
@@ -23430,7 +23430,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.0550137836253</v>
+        <v>115.6264366677539</v>
       </c>
       <c r="H13" t="n">
         <v>160.0829940331247</v>
@@ -23439,7 +23439,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S13" t="n">
-        <v>174.1840844483081</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T13" t="n">
         <v>221.0023972007068</v>
@@ -23475,7 +23475,7 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>290.3107070893353</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>61.03898142843855</v>
       </c>
       <c r="E14" t="n">
         <v>371.4789120616362</v>
@@ -23509,13 +23509,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>125.8394949789471</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
         <v>382.2855674184499</v>
@@ -23582,13 +23582,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>238.4281760481405</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>65.89928836518314</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -23670,13 +23670,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H16" t="n">
-        <v>7.9785710481507</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.14329602706152</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R16" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
-        <v>224.1841888012565</v>
+        <v>143.7878693151037</v>
       </c>
       <c r="T16" t="n">
         <v>221.0023972007068</v>
@@ -23721,7 +23721,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,16 +23737,16 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>21.3890834241729</v>
       </c>
       <c r="H17" t="n">
         <v>332.2779548450047</v>
@@ -23788,16 +23788,16 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
-        <v>115.2804430384257</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>382.2855674184499</v>
@@ -23813,25 +23813,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>44.06525051111431</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350707</v>
+        <v>51.91939079956387</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886886</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S18" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>211.8662302997449</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.7006619981113</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C19" t="n">
         <v>166.4571809719723</v>
@@ -23913,7 +23913,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.14329602706154</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R19" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S19" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23955,7 +23955,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
-        <v>221.9194554082425</v>
+        <v>148.5660519091779</v>
       </c>
       <c r="Y19" t="n">
         <v>217.1412728141684</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30.3108994512574</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
         <v>337.7721596422273</v>
@@ -23980,16 +23980,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>92.34000262764613</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>29.89130507431588</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,22 +24098,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>234.086987539084</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -24144,13 +24144,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H22" t="n">
-        <v>160.0829940331247</v>
+        <v>79.68667454697207</v>
       </c>
       <c r="I22" t="n">
         <v>145.433169315347</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.14329602706154</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S22" t="n">
         <v>224.1841888012565</v>
@@ -24189,13 +24189,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>167.1673067093255</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24214,10 +24214,10 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>194.7117974622146</v>
@@ -24268,13 +24268,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>287.4154037724493</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>259.9639757988524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8662302997449</v>
+        <v>91.28155214271996</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>113.5872863450729</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>177.6169206649681</v>
+        <v>166.9381198275827</v>
       </c>
       <c r="C25" t="n">
-        <v>14.10223892236183</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>138.9268822184467</v>
@@ -24448,22 +24448,22 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>141.6952545604986</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I26" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>218.5943433938511</v>
       </c>
       <c r="X26" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -24527,22 +24527,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>80.25115062692282</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,22 +24572,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>64.19561720753146</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24618,13 +24618,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H28" t="n">
-        <v>82.56286578368658</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6213336334641</v>
+        <v>281.3944484224784</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -24682,13 +24682,13 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>314.7640143649296</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
         <v>403.1992496400135</v>
@@ -24697,10 +24697,10 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>310.90345660921</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>65.61146546405367</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>204.3747665166329</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -24840,10 +24840,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>14.10223892236201</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -24861,7 +24861,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J31" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>214.6925701972568</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
         <v>217.1412728141684</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>16.81721828864426</v>
       </c>
       <c r="C32" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>146.9238970339716</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
         <v>371.4789120616362</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I32" t="n">
         <v>185.5090622027478</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>194.7117974622146</v>
@@ -24976,7 +24976,7 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
         <v>337.8964638257669</v>
@@ -24985,7 +24985,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>57.74838979236225</v>
       </c>
       <c r="H33" t="n">
         <v>118.2964226714636</v>
@@ -25046,19 +25046,19 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>44.86428938070412</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>14.10223892236183</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -25098,7 +25098,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J34" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>73.14329602706152</v>
       </c>
       <c r="R34" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>224.1841888012565</v>
       </c>
       <c r="T34" t="n">
-        <v>221.0023972007068</v>
+        <v>97.85899682069682</v>
       </c>
       <c r="U34" t="n">
         <v>288.6213336334641</v>
@@ -25159,16 +25159,16 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
         <v>332.2779548450047</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>194.7117974622146</v>
@@ -25210,19 +25210,19 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>186.2491584341418</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>107.6188791637632</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -25241,19 +25241,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>21.1152616086689</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>11.73001485123586</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>9.44430370175067</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H37" t="n">
         <v>160.0829940331247</v>
@@ -25335,7 +25335,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J37" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X37" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.1412728141684</v>
+        <v>141.5231359220899</v>
       </c>
     </row>
     <row r="38">
@@ -25393,16 +25393,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>192.7678164590682</v>
       </c>
       <c r="E38" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
         <v>417.3985592667085</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>194.7117974622146</v>
@@ -25450,13 +25450,13 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>204.9564591430471</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S39" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>211.8662302997449</v>
@@ -25529,16 +25529,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>5.054474569196174</v>
       </c>
       <c r="Y39" t="n">
-        <v>84.06009718378971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25551,7 +25551,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>7.846470890097919</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -25560,7 +25560,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>168.0550137836253</v>
@@ -25614,10 +25614,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X40" t="n">
-        <v>141.5231359220896</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -25639,16 +25639,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>194.7117974622146</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>213.6451339169377</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>171.785153778662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>135.2203517029602</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S42" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>244.0041632556743</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.0550137836253</v>
+        <v>44.91161340361525</v>
       </c>
       <c r="H43" t="n">
         <v>160.0829940331247</v>
@@ -25833,16 +25833,16 @@
         <v>73.14329602706152</v>
       </c>
       <c r="R43" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>224.1841888012565</v>
       </c>
       <c r="T43" t="n">
-        <v>212.0861385338498</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>138.9165333567791</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>332.2779548450047</v>
@@ -25921,19 +25921,19 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0353723969745</v>
+        <v>64.68131458594178</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>52.29243489304113</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>177.283526739121</v>
+        <v>146.5187277511212</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>128.2480813810613</v>
+        <v>87.24553494942349</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
         <v>168.0550137836253</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>174.3941919203111</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>555337.2086744413</v>
+        <v>555337.2086744414</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>555337.2086744414</v>
+        <v>555337.2086744413</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>555337.2086744414</v>
+        <v>555337.2086744413</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595304.0967441102</v>
+      </c>
+      <c r="C2" t="n">
         <v>595304.0967441105</v>
       </c>
-      <c r="C2" t="n">
-        <v>595304.0967441101</v>
-      </c>
       <c r="D2" t="n">
-        <v>595304.0967441102</v>
+        <v>595304.0967441106</v>
       </c>
       <c r="E2" t="n">
-        <v>338123.8689204557</v>
+        <v>338123.8689204559</v>
       </c>
       <c r="F2" t="n">
-        <v>338123.8689204555</v>
+        <v>338123.8689204559</v>
       </c>
       <c r="G2" t="n">
         <v>338123.8689204556</v>
@@ -26334,28 +26334,28 @@
         <v>338123.8689204556</v>
       </c>
       <c r="I2" t="n">
-        <v>338123.8689204555</v>
+        <v>338123.8689204556</v>
       </c>
       <c r="J2" t="n">
+        <v>338123.8689204558</v>
+      </c>
+      <c r="K2" t="n">
         <v>338123.8689204557</v>
       </c>
-      <c r="K2" t="n">
-        <v>338123.8689204559</v>
-      </c>
       <c r="L2" t="n">
+        <v>338123.8689204556</v>
+      </c>
+      <c r="M2" t="n">
+        <v>338123.8689204556</v>
+      </c>
+      <c r="N2" t="n">
+        <v>338123.8689204556</v>
+      </c>
+      <c r="O2" t="n">
         <v>338123.8689204557</v>
       </c>
-      <c r="M2" t="n">
-        <v>338123.8689204557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>338123.8689204555</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>338123.8689204556</v>
-      </c>
-      <c r="P2" t="n">
-        <v>338123.8689204557</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>497053.1518174924</v>
+        <v>497053.1518174925</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>106891.8593742393</v>
+        <v>106891.8593742394</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>398503.1168259752</v>
       </c>
       <c r="E4" t="n">
-        <v>17165.37605798123</v>
+        <v>17165.37605798122</v>
       </c>
       <c r="F4" t="n">
-        <v>17165.37605798123</v>
+        <v>17165.37605798122</v>
       </c>
       <c r="G4" t="n">
         <v>17165.37605798122</v>
@@ -26438,7 +26438,7 @@
         <v>17165.37605798123</v>
       </c>
       <c r="I4" t="n">
-        <v>17165.37605798123</v>
+        <v>17165.37605798122</v>
       </c>
       <c r="J4" t="n">
         <v>17165.37605798123</v>
@@ -26453,10 +26453,10 @@
         <v>17165.37605798123</v>
       </c>
       <c r="N4" t="n">
-        <v>17165.37605798123</v>
+        <v>17165.37605798122</v>
       </c>
       <c r="O4" t="n">
-        <v>17165.37605798123</v>
+        <v>17165.37605798122</v>
       </c>
       <c r="P4" t="n">
         <v>17165.37605798122</v>
@@ -26484,31 +26484,31 @@
         <v>36091.33751189045</v>
       </c>
       <c r="G5" t="n">
-        <v>36091.33751189044</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="H5" t="n">
-        <v>36091.33751189044</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="I5" t="n">
         <v>36091.33751189045</v>
       </c>
       <c r="J5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="K5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="L5" t="n">
         <v>36091.33751189045</v>
       </c>
       <c r="M5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="N5" t="n">
         <v>36091.33751189045</v>
       </c>
       <c r="O5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="P5" t="n">
         <v>36091.33751189045</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163173.3799181353</v>
+        <v>163128.7160760831</v>
       </c>
       <c r="C6" t="n">
-        <v>163173.3799181349</v>
+        <v>163128.7160760833</v>
       </c>
       <c r="D6" t="n">
-        <v>163173.3799181351</v>
+        <v>163128.7160760835</v>
       </c>
       <c r="E6" t="n">
-        <v>-212185.9964669084</v>
+        <v>-221755.8539320585</v>
       </c>
       <c r="F6" t="n">
-        <v>284867.1553505838</v>
+        <v>275297.2978854339</v>
       </c>
       <c r="G6" t="n">
-        <v>284867.1553505839</v>
+        <v>275297.2978854337</v>
       </c>
       <c r="H6" t="n">
-        <v>284867.155350584</v>
+        <v>275297.2978854337</v>
       </c>
       <c r="I6" t="n">
-        <v>284867.1553505838</v>
+        <v>275297.2978854337</v>
       </c>
       <c r="J6" t="n">
-        <v>284867.155350584</v>
+        <v>275297.2978854339</v>
       </c>
       <c r="K6" t="n">
-        <v>284867.1553505842</v>
+        <v>275297.2978854338</v>
       </c>
       <c r="L6" t="n">
-        <v>284867.155350584</v>
+        <v>275297.2978854337</v>
       </c>
       <c r="M6" t="n">
-        <v>177975.2959763447</v>
+        <v>168405.4385111944</v>
       </c>
       <c r="N6" t="n">
-        <v>284867.1553505838</v>
+        <v>275297.2978854337</v>
       </c>
       <c r="O6" t="n">
-        <v>284867.1553505839</v>
+        <v>275297.2978854338</v>
       </c>
       <c r="P6" t="n">
-        <v>284867.1553505841</v>
+        <v>275297.2978854337</v>
       </c>
     </row>
   </sheetData>
@@ -26746,31 +26746,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>459.2752909409237</v>
+      </c>
+      <c r="F3" t="n">
+        <v>459.2752909409237</v>
+      </c>
+      <c r="G3" t="n">
         <v>459.2752909409236</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>459.2752909409236</v>
-      </c>
-      <c r="G3" t="n">
-        <v>459.2752909409235</v>
-      </c>
-      <c r="H3" t="n">
-        <v>459.2752909409235</v>
       </c>
       <c r="I3" t="n">
         <v>459.2752909409236</v>
       </c>
       <c r="J3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="K3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="L3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="M3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="N3" t="n">
         <v>459.2752909409236</v>
@@ -26801,22 +26801,22 @@
         <v>428.9331606805645</v>
       </c>
       <c r="F4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="G4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="H4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="I4" t="n">
         <v>428.9331606805645</v>
       </c>
       <c r="J4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="K4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="L4" t="n">
         <v>428.9331606805645</v>
@@ -26825,10 +26825,10 @@
         <v>428.9331606805646</v>
       </c>
       <c r="N4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="O4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="P4" t="n">
         <v>428.9331606805644</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805643</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,43 +31755,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H11" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I11" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J11" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K11" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L11" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M11" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N11" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O11" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P11" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R11" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S11" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T11" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U11" t="n">
         <v>0.1477066262322567</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H12" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I12" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J12" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K12" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L12" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M12" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N12" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O12" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P12" t="n">
         <v>188.640826575339</v>
@@ -31864,16 +31864,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R12" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S12" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T12" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H13" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I13" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J13" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K13" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L13" t="n">
         <v>123.1309525909486</v>
@@ -31931,7 +31931,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N13" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O13" t="n">
         <v>117.0624954680243</v>
@@ -31940,19 +31940,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R13" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S13" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T13" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,43 +31992,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H14" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I14" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J14" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K14" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L14" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M14" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N14" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O14" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P14" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R14" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S14" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T14" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U14" t="n">
         <v>0.1477066262322567</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H15" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I15" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K15" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L15" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M15" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N15" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O15" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P15" t="n">
         <v>188.640826575339</v>
@@ -32101,16 +32101,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S15" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T15" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H16" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I16" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J16" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
@@ -32168,7 +32168,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N16" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O16" t="n">
         <v>117.0624954680243</v>
@@ -32177,19 +32177,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R16" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S16" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T16" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,43 +32229,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H17" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I17" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J17" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K17" t="n">
-        <v>234.8604594573929</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L17" t="n">
-        <v>291.3651677393358</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M17" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N17" t="n">
-        <v>329.4457823148395</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O17" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P17" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.3831741692327</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R17" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S17" t="n">
-        <v>42.0733093158444</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T17" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U17" t="n">
         <v>0.1477066262322567</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9878751540993449</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H18" t="n">
-        <v>9.540794251433148</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I18" t="n">
-        <v>34.0123682442099</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K18" t="n">
-        <v>159.5201734582262</v>
+        <v>159.5201734582263</v>
       </c>
       <c r="L18" t="n">
         <v>214.4945592267021</v>
@@ -32326,28 +32326,28 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N18" t="n">
-        <v>256.9298629953379</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O18" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P18" t="n">
-        <v>188.6408265753389</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q18" t="n">
         <v>126.1013968636287</v>
       </c>
       <c r="R18" t="n">
-        <v>61.33491526943128</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S18" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T18" t="n">
-        <v>3.981830116742533</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196979</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H19" t="n">
-        <v>7.363462861315138</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I19" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340264</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368852</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L19" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M19" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N19" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O19" t="n">
         <v>117.0624954680243</v>
       </c>
       <c r="P19" t="n">
-        <v>100.1671880439023</v>
+        <v>100.1671880439024</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.35056893207944</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R19" t="n">
-        <v>37.23894408186568</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S19" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T19" t="n">
-        <v>3.538678471184163</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,22 +32469,22 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I20" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J20" t="n">
         <v>156.7051908522501</v>
       </c>
       <c r="K20" t="n">
-        <v>234.8604594573929</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L20" t="n">
-        <v>291.3651677393358</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M20" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N20" t="n">
-        <v>329.4457823148395</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O20" t="n">
         <v>311.086310257377</v>
@@ -32493,16 +32493,16 @@
         <v>265.5049685685165</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.3831741692327</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R20" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S20" t="n">
-        <v>42.0733093158444</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T20" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U20" t="n">
         <v>0.1477066262322567</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9878751540993449</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H21" t="n">
-        <v>9.540794251433148</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I21" t="n">
-        <v>34.0123682442099</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J21" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K21" t="n">
-        <v>159.5201734582262</v>
+        <v>159.5201734582263</v>
       </c>
       <c r="L21" t="n">
         <v>214.4945592267021</v>
@@ -32563,28 +32563,28 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N21" t="n">
-        <v>256.9298629953379</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O21" t="n">
         <v>235.040629317663</v>
       </c>
       <c r="P21" t="n">
-        <v>188.6408265753389</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q21" t="n">
         <v>126.1013968636287</v>
       </c>
       <c r="R21" t="n">
-        <v>61.33491526943128</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S21" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T21" t="n">
-        <v>3.981830116742533</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8282013443196979</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H22" t="n">
-        <v>7.363462861315138</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I22" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J22" t="n">
-        <v>58.55383504340264</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K22" t="n">
-        <v>96.22193800368852</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L22" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M22" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N22" t="n">
         <v>126.7373929903044</v>
@@ -32648,22 +32648,22 @@
         <v>117.0624954680243</v>
       </c>
       <c r="P22" t="n">
-        <v>100.1671880439023</v>
+        <v>100.1671880439024</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.35056893207944</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R22" t="n">
-        <v>37.23894408186568</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S22" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T22" t="n">
-        <v>3.538678471184163</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I26" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J26" t="n">
         <v>156.7051908522501</v>
@@ -32952,10 +32952,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L26" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M26" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N26" t="n">
         <v>329.4457823148396</v>
@@ -32970,13 +32970,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R26" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S26" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584441</v>
       </c>
       <c r="T26" t="n">
-        <v>8.082321954146302</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U26" t="n">
         <v>0.1477066262322567</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.987875154099345</v>
       </c>
       <c r="H27" t="n">
         <v>9.54079425143315</v>
@@ -33025,7 +33025,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J27" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K27" t="n">
         <v>159.5201734582263</v>
@@ -33049,7 +33049,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R27" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S27" t="n">
         <v>18.34934770881896</v>
@@ -33058,7 +33058,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196981</v>
       </c>
       <c r="H28" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315139</v>
       </c>
       <c r="I28" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J28" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340265</v>
       </c>
       <c r="K28" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368854</v>
       </c>
       <c r="L28" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M28" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N28" t="n">
         <v>126.7373929903044</v>
@@ -33137,7 +33137,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I29" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J29" t="n">
         <v>156.7051908522501</v>
@@ -33189,10 +33189,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L29" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M29" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N29" t="n">
         <v>329.4457823148396</v>
@@ -33207,13 +33207,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R29" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S29" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584441</v>
       </c>
       <c r="T29" t="n">
-        <v>8.082321954146302</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U29" t="n">
         <v>0.1477066262322567</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.987875154099345</v>
       </c>
       <c r="H30" t="n">
         <v>9.54079425143315</v>
@@ -33262,7 +33262,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J30" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K30" t="n">
         <v>159.5201734582263</v>
@@ -33286,7 +33286,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R30" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S30" t="n">
         <v>18.34934770881896</v>
@@ -33295,7 +33295,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196981</v>
       </c>
       <c r="H31" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315139</v>
       </c>
       <c r="I31" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J31" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340265</v>
       </c>
       <c r="K31" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368854</v>
       </c>
       <c r="L31" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M31" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N31" t="n">
         <v>126.7373929903044</v>
@@ -33374,7 +33374,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I32" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J32" t="n">
         <v>156.7051908522501</v>
@@ -33426,10 +33426,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L32" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M32" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N32" t="n">
         <v>329.4457823148396</v>
@@ -33444,13 +33444,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R32" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S32" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584441</v>
       </c>
       <c r="T32" t="n">
-        <v>8.082321954146302</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U32" t="n">
         <v>0.1477066262322567</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.987875154099345</v>
       </c>
       <c r="H33" t="n">
         <v>9.54079425143315</v>
@@ -33499,7 +33499,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J33" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K33" t="n">
         <v>159.5201734582263</v>
@@ -33523,7 +33523,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R33" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S33" t="n">
         <v>18.34934770881896</v>
@@ -33532,7 +33532,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196981</v>
       </c>
       <c r="H34" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315139</v>
       </c>
       <c r="I34" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J34" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340265</v>
       </c>
       <c r="K34" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368854</v>
       </c>
       <c r="L34" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M34" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N34" t="n">
         <v>126.7373929903044</v>
@@ -33611,7 +33611,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I35" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J35" t="n">
         <v>156.7051908522501</v>
@@ -33663,10 +33663,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L35" t="n">
-        <v>291.3651677393359</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M35" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N35" t="n">
         <v>329.4457823148396</v>
@@ -33681,13 +33681,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R35" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S35" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584441</v>
       </c>
       <c r="T35" t="n">
-        <v>8.082321954146302</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U35" t="n">
         <v>0.1477066262322567</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.987875154099345</v>
       </c>
       <c r="H36" t="n">
         <v>9.54079425143315</v>
@@ -33736,7 +33736,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J36" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K36" t="n">
         <v>159.5201734582263</v>
@@ -33760,7 +33760,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R36" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S36" t="n">
         <v>18.34934770881896</v>
@@ -33769,7 +33769,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196981</v>
       </c>
       <c r="H37" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315139</v>
       </c>
       <c r="I37" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J37" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340265</v>
       </c>
       <c r="K37" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368854</v>
       </c>
       <c r="L37" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M37" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N37" t="n">
         <v>126.7373929903044</v>
@@ -33848,7 +33848,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K11" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L11" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M11" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N11" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O11" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P11" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L12" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M12" t="n">
-        <v>183.002068966006</v>
+        <v>294.7534083983399</v>
       </c>
       <c r="N12" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O12" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P12" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L13" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M13" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N13" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O13" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P13" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K14" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L14" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M14" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N14" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O14" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P14" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>162.7270914936593</v>
       </c>
       <c r="L15" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M15" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N15" t="n">
-        <v>323.3818477386931</v>
+        <v>323.381847738693</v>
       </c>
       <c r="O15" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P15" t="n">
         <v>231.5559236085354</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M16" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K17" t="n">
-        <v>176.3970685286314</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L17" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M17" t="n">
-        <v>334.4622543336422</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N17" t="n">
-        <v>332.9626517459643</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O17" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P17" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002261</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.29762450082171</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>162.7270914936592</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L18" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M18" t="n">
-        <v>378.6783934879409</v>
+        <v>203.2996934668277</v>
       </c>
       <c r="N18" t="n">
-        <v>303.0842232378716</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2959939867615</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P18" t="n">
-        <v>231.5559236085353</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970218</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676512</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M19" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N19" t="n">
-        <v>82.29890925793116</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186792</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62327613144089</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K20" t="n">
-        <v>176.3970685286314</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L20" t="n">
         <v>274.3746085046433</v>
       </c>
       <c r="M20" t="n">
-        <v>334.4622543336422</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N20" t="n">
-        <v>332.9626517459643</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O20" t="n">
         <v>277.1250097811782</v>
@@ -36141,7 +36141,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.75034647002261</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K21" t="n">
-        <v>162.7270914936592</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L21" t="n">
         <v>285.7627596518971</v>
@@ -36211,16 +36211,16 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N21" t="n">
-        <v>231.9281328071808</v>
+        <v>211.630508306359</v>
       </c>
       <c r="O21" t="n">
-        <v>316.2959939867615</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P21" t="n">
-        <v>231.5559236085353</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.45371493151261</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.995723626970218</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L22" t="n">
-        <v>63.85525412676512</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M22" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N22" t="n">
-        <v>82.29890925793116</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O22" t="n">
-        <v>53.79651836186792</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P22" t="n">
-        <v>19.62327613144089</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L24" t="n">
         <v>285.7627596518971</v>
@@ -36448,7 +36448,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N24" t="n">
-        <v>323.3818477386931</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O24" t="n">
         <v>316.2959939867616</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K26" t="n">
         <v>176.3970685286315</v>
@@ -36603,7 +36603,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M26" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336423</v>
       </c>
       <c r="N26" t="n">
         <v>332.9626517459644</v>
@@ -36615,7 +36615,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002263</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>78.8021064040588</v>
       </c>
       <c r="L27" t="n">
         <v>285.7627596518971</v>
@@ -36685,7 +36685,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N27" t="n">
-        <v>394.6552243008404</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O27" t="n">
         <v>316.2959939867616</v>
@@ -36694,7 +36694,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970232</v>
       </c>
       <c r="L28" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676513</v>
       </c>
       <c r="M28" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N28" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793117</v>
       </c>
       <c r="O28" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186794</v>
       </c>
       <c r="P28" t="n">
-        <v>19.62327613144092</v>
+        <v>19.6232761314409</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K29" t="n">
         <v>176.3970685286315</v>
@@ -36840,7 +36840,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M29" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336423</v>
       </c>
       <c r="N29" t="n">
         <v>332.9626517459644</v>
@@ -36852,7 +36852,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002263</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>285.7627596518971</v>
       </c>
       <c r="M30" t="n">
-        <v>378.6783934879409</v>
+        <v>203.2996934668279</v>
       </c>
       <c r="N30" t="n">
         <v>407.306832828294</v>
       </c>
       <c r="O30" t="n">
-        <v>140.9172939656488</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P30" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151262</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970232</v>
       </c>
       <c r="L31" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676513</v>
       </c>
       <c r="M31" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N31" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793117</v>
       </c>
       <c r="O31" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186794</v>
       </c>
       <c r="P31" t="n">
-        <v>19.62327613144092</v>
+        <v>19.6232761314409</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K32" t="n">
         <v>176.3970685286315</v>
@@ -37077,7 +37077,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M32" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336423</v>
       </c>
       <c r="N32" t="n">
         <v>332.9626517459644</v>
@@ -37089,7 +37089,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002263</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>90.0864351299621</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M33" t="n">
         <v>378.6783934879409</v>
@@ -37168,7 +37168,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.45371493151264</v>
+        <v>78.80210640405885</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970232</v>
       </c>
       <c r="L34" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676513</v>
       </c>
       <c r="M34" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N34" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793117</v>
       </c>
       <c r="O34" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186794</v>
       </c>
       <c r="P34" t="n">
-        <v>19.62327613144092</v>
+        <v>19.6232761314409</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K35" t="n">
         <v>176.3970685286315</v>
@@ -37314,7 +37314,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M35" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336423</v>
       </c>
       <c r="N35" t="n">
         <v>332.9626517459644</v>
@@ -37326,7 +37326,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002263</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P36" t="n">
-        <v>198.60669058026</v>
+        <v>218.904315081082</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151262</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970232</v>
       </c>
       <c r="L37" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676513</v>
       </c>
       <c r="M37" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N37" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793117</v>
       </c>
       <c r="O37" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186794</v>
       </c>
       <c r="P37" t="n">
-        <v>19.62327613144092</v>
+        <v>19.6232761314409</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>285.7627596518971</v>
@@ -37639,10 +37639,10 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P39" t="n">
-        <v>147.6309385189348</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>78.80210640405838</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>78.80210640405896</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>285.7627596518971</v>
@@ -37879,7 +37879,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>78.80210640405838</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002249</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>285.7627596518971</v>
@@ -38110,13 +38110,13 @@
         <v>407.306832828294</v>
       </c>
       <c r="O45" t="n">
-        <v>120.6196694648263</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P45" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q45" t="n">
-        <v>91.45371493151264</v>
+        <v>78.80210640405838</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
